--- a/biology/Botanique/Fuchsia/Fuchsia.xlsx
+++ b/biology/Botanique/Fuchsia/Fuchsia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fuchsias sont un genre de plantes de la famille des Onagracées, originaires d'Amérique latine et de Nouvelle-Zélande. Ce sont des arbrisseaux, plus rarement des petits arbres ou des arbustes, qui ne supportent pas, pour la plupart, les gelées ou les températures négatives (certaines espèces comme Fuchsia magellanica sont rustiques). Il en existe une centaine d'espèces. De nombreuses variétés sont cultivées comme plantes d'ornement pour leurs fleurs pendantes très décoratives souvent bicolores, alliant sépales rouges et pétales pourpres à blancs.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre, Fuchsia, a été dédié au botaniste allemand Leonhart Fuchs (1501–1566), par Charles Plumier, qui découvrit ces plantes à la fin du XVIIe siècle, dans l'ile d'  Hispaniola actuellement partagée entre Haïti et la République Dominicaine.
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des fuchsias sont des plantes ligneuses (arbrisseaux ou arbustes) de 20 cm à 4 m de haut, mais une espèce fait exception en prenant la forme d'un arbre de 12 à 15 m de haut : il s'agit de Fuchsia excorticata (en), originaire de Nouvelle-Zélande.
 Les fuchsias ont des feuilles opposées ou verticillées par 3 ou 5, longues de 1 à 25 cm, entières au limbe lancéolé et généralement à bord serré (parfois entier). Elles peuvent être caduques ou persistantes selon les espèces.
@@ -577,7 +593,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fuchsias sont originaires principalement d'Amérique centrale, du Mexique, d'Amérique du Sud, ainsi que de Nouvelle-Zélande et de Tahiti.
 </t>
@@ -608,7 +626,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le missionnaire franciscain français Charles Plumier, botaniste et explorateur pour le compte du roi Louis XIV, qui le premier a décrit et récolté ce végétal sur l'ile d'Hispaniola à la fin du XVIIe siècle. Il nomme cette plante fuchsia en hommage au botaniste allemand Leonhart Fuchs.
 </t>
@@ -639,13 +659,50 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Fuchsia a été décrit en 1753, 50 ans après sa découverte, par le naturaliste suédois Carl von Linné (1707-1778). L'espèce type est celle découverte par Plumier, dont Linné reprend le nom pour décrire l'espèce Fuchsia triphylla L.[3].
-En classification classique de Cronquist (1981)[4] de même qu'en en classification phylogénétique APG III (2009)[5] il est classé dans la famille des Onagraceae.
-Liste des sections
-Le genre est subdivisé en 11 sections qui regroupent les 125 espèces (compte tenu des espèces nouvelles depuis 2020). Les sections les plus peuplées sont d'abord la Section Fuchsia avec 65 espèces et la section Hemsleyella avec 15 espèces, tandis que d'autres n'en comportent que quelques-unes[6].
-Par ordre d'importance[3],[7] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Fuchsia a été décrit en 1753, 50 ans après sa découverte, par le naturaliste suédois Carl von Linné (1707-1778). L'espèce type est celle découverte par Plumier, dont Linné reprend le nom pour décrire l'espèce Fuchsia triphylla L..
+En classification classique de Cronquist (1981) de même qu'en en classification phylogénétique APG III (2009) il est classé dans la famille des Onagraceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fuchsia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuchsia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sections</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le genre est subdivisé en 11 sections qui regroupent les 125 espèces (compte tenu des espèces nouvelles depuis 2020). Les sections les plus peuplées sont d'abord la Section Fuchsia avec 65 espèces et la section Hemsleyella avec 15 espèces, tandis que d'autres n'en comportent que quelques-unes.
+Par ordre d'importance, :
 section Fuchsia - espèce type Fuchsia triphylla (65 espèces)
 section Hemsleyella - espèce type Fuchsia juntasensis (15 espèces), hommage à William Botting Hemsley, botaniste britannique à Kew
 section Quélusia (9 espèces), le nom vient du palais de Queluz, au Portugal, résidence d'été des rois
@@ -665,7 +722,7 @@
 Fuchsia obconica
 Fuchsia ravenii
 Fuchsia thymifolia
-section Ellobium (3 espèces), du grec ellobion, boucle d'oreille[8]
+section Ellobium (3 espèces), du grec ellobion, boucle d'oreille
 espèce type Fuchsia fulgens
 Fuchsia decidua
 Fuchsia splendens
@@ -678,14 +735,48 @@
 Fuchsia paniculata
 section Jimenezia (1 espèce), hommage au botaniste et agronome costaricain Alfonso Jimenez-Muñoz
 espèce type Fuchsia jimenezii
-section   (1 espèce), hommage au docteur Kierschleger, auteur d'une flore d'Alsace[9]
+section   (1 espèce), hommage au docteur Kierschleger, auteur d'une flore d'Alsace
 espèce type Fuchsia lycioides
 section Procumbens (1 espèce), procumbant signifie rampant
 espèce type Fuchsia procumbens
 section Pachyrrhiza  (1 espèce), Pachyrrhiza signifie « grosses racines »
-espèce type Fuchsia pachyrrhiza
-Liste d'espèces
-Selon The Plant List            (29 décembre 2020)[10] :
+espèce type Fuchsia pachyrrhiza</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fuchsia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuchsia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (29 décembre 2020) :
 Fuchsia abrupta I.M.Johnst.
 Fuchsia alpestris Gardner
 Fuchsia ampliata Benth.
@@ -799,7 +890,7 @@
 Fuchsia verrucosa Hartw. ex Benth.
 Fuchsia vulcanica André
 Fuchsia wurdackii Munz
-Selon Tropicos                                           (29 décembre 2020)[11] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (29 décembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Fuchsia abrupta I.M. Johnst.
 Fuchsia acynifolia Scheidw.
 Fuchsia adpressipilis Steyerm.
@@ -1037,31 +1128,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Fuchsia</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fuchsia</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fuchsias sont des plantes très cultivées dans les jardins d'ornement, bien qu'elles ne soient pas rustiques en régions tempérées et qu'elles doivent être généralement cultivées en serre. En général elles ne résistent pas au-dessous de 7 °C. L'espèce la plus résistante au froid est Fuchsia magellanica qui peut être cultivée en extérieur dans les régions de climat doux. La plante s'est même acclimatée en Irlande et dans le sud-ouest de la Grande-Bretagne.
 Les variétés les plus cultivées sont des hybrides, dont il existe des milliers de cultivars, propagés par boutures. Ils sont sélectionnés pour l'aspect original du port général, du feuillage ou de la floraison, de même que pour leur résistance accrue au gel ou au soleil.
